--- a/biology/Médecine/Les_Liens_du_sang_(téléfilm,_1989)/Les_Liens_du_sang_(téléfilm,_1989).xlsx
+++ b/biology/Médecine/Les_Liens_du_sang_(téléfilm,_1989)/Les_Liens_du_sang_(téléfilm,_1989).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Liens_du_sang_(t%C3%A9l%C3%A9film,_1989)</t>
+          <t>Les_Liens_du_sang_(téléfilm,_1989)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Liens du sang est un téléfilm documentaire français réalisé par Gérard Pelisson en 1989.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Liens_du_sang_(t%C3%A9l%C3%A9film,_1989)</t>
+          <t>Les_Liens_du_sang_(téléfilm,_1989)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'aube des années 1990, marquées par l'Affaire du sang contaminé, ce documentaire, commandité par l'Établissement français du sang s'attachait à montrer, dès 1989, les enjeux de la transfusion sanguine et de la conservation du sang dans les différents pays de la communauté européenne.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Liens_du_sang_(t%C3%A9l%C3%A9film,_1989)</t>
+          <t>Les_Liens_du_sang_(téléfilm,_1989)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Gérard Pelisson
 Scénario : Anelyse Lafay-Delhautal
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Liens_du_sang_(t%C3%A9l%C3%A9film,_1989)</t>
+          <t>Les_Liens_du_sang_(téléfilm,_1989)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Docteur Majorel-Rivière : lui-même</t>
         </is>
